--- a/javascript/rsrc/overview.xlsx
+++ b/javascript/rsrc/overview.xlsx
@@ -22,8 +22,7 @@
     <t>API Levels</t>
   </si>
   <si>
-    <t>Faust2AudioNode.d.ts
-FaustWebAudio.d.ts</t>
+    <t>FaustWebAudio.d.ts</t>
   </si>
   <si>
     <t>Faust Audio Nodes Instance</t>
@@ -57,7 +56,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -69,29 +68,40 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <i val="1"/>
-      <sz val="9"/>
-      <color indexed="10"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="11"/>
+      <sz val="13"/>
+      <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
       <i val="1"/>
       <sz val="9"/>
-      <color indexed="11"/>
+      <color indexed="12"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="13"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <i val="1"/>
+      <sz val="9"/>
+      <color indexed="13"/>
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor auto="1"/>
+      </patternFill>
     </fill>
     <fill>
       <gradientFill type="linear" degree="90">
@@ -105,18 +115,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="13"/>
+        <fgColor indexed="15"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="14"/>
+        <fgColor indexed="16"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -125,137 +135,196 @@
       <diagonal/>
     </border>
     <border>
-      <left>
-        <color indexed="8"/>
+      <left style="thin">
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="11"/>
       </right>
-      <top>
-        <color indexed="8"/>
+      <top style="thin">
+        <color indexed="10"/>
       </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="11"/>
       </right>
-      <top>
-        <color indexed="8"/>
+      <top style="thin">
+        <color indexed="10"/>
       </top>
-      <bottom>
-        <color indexed="8"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="14"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color indexed="14"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="14"/>
       </left>
-      <right>
-        <color indexed="8"/>
+      <right style="thin">
+        <color indexed="14"/>
       </right>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top>
-        <color indexed="8"/>
+      <top style="thin">
+        <color indexed="14"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="14"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left>
-        <color indexed="8"/>
+      <left style="thin">
+        <color indexed="14"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="14"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="11"/>
       </right>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom>
-        <color indexed="8"/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="11"/>
       </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right/>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="14"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
       </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
+      <top/>
       <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="9"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom>
-        <color indexed="8"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -265,54 +334,81 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -331,6 +427,8 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff5e5e5e"/>
       <rgbColor rgb="ff004c7f"/>
@@ -405,10 +503,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="5E5E5E"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="D5D5D5"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="00A2FF"/>
@@ -585,11 +683,14 @@
     <a:spDef>
       <a:spPr>
         <a:solidFill>
-          <a:srgbClr val="000000"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -598,34 +699,34 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="Helvetica Neue Medium"/>
-            <a:ea typeface="Helvetica Neue Medium"/>
-            <a:cs typeface="Helvetica Neue Medium"/>
-            <a:sym typeface="Helvetica Neue Medium"/>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -873,12 +974,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1169,7 +1270,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1447,16 +1548,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="23.9453" style="1" customWidth="1"/>
-    <col min="2" max="2" width="1.40625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.8594" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24" style="1" customWidth="1"/>
+    <col min="2" max="2" width="1.35156" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.8516" style="1" customWidth="1"/>
+    <col min="4" max="5" width="16.3516" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.7" customHeight="1">
@@ -1465,78 +1567,100 @@
         <v>0</v>
       </c>
       <c r="C1" s="4"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" ht="19.7" customHeight="1">
-      <c r="A2" t="s" s="5">
+      <c r="A2" t="s" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" t="s" s="7">
+      <c r="B2" s="8"/>
+      <c r="C2" t="s" s="9">
         <v>2</v>
       </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="11"/>
     </row>
     <row r="3" ht="8.35" customHeight="1">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="11"/>
     </row>
     <row r="4" ht="40.05" customHeight="1">
-      <c r="A4" t="s" s="11">
+      <c r="A4" t="s" s="15">
         <v>3</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" t="s" s="13">
+      <c r="B4" s="16"/>
+      <c r="C4" t="s" s="17">
         <v>4</v>
       </c>
+      <c r="D4" s="18"/>
+      <c r="E4" s="11"/>
     </row>
     <row r="5" ht="8.35" customHeight="1">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="14"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
     </row>
     <row r="6" ht="40.5" customHeight="1">
-      <c r="A6" t="s" s="11">
+      <c r="A6" t="s" s="15">
         <v>5</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" t="s" s="13">
+      <c r="B6" s="16"/>
+      <c r="C6" t="s" s="17">
         <v>6</v>
       </c>
+      <c r="D6" s="18"/>
+      <c r="E6" s="11"/>
     </row>
     <row r="7" ht="8.35" customHeight="1">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="14"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
     </row>
     <row r="8" ht="40.1" customHeight="1">
-      <c r="A8" t="s" s="11">
+      <c r="A8" t="s" s="15">
         <v>7</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" t="s" s="13">
+      <c r="B8" s="16"/>
+      <c r="C8" t="s" s="17">
         <v>8</v>
       </c>
+      <c r="D8" s="18"/>
+      <c r="E8" s="11"/>
     </row>
     <row r="9" ht="8.35" customHeight="1">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="14"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="11"/>
     </row>
     <row r="10" ht="40.1" customHeight="1">
-      <c r="A10" t="s" s="11">
+      <c r="A10" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" t="s" s="13">
+      <c r="B10" s="16"/>
+      <c r="C10" t="s" s="17">
         <v>10</v>
       </c>
+      <c r="D10" s="18"/>
+      <c r="E10" s="11"/>
     </row>
     <row r="11" ht="20.2" customHeight="1">
-      <c r="A11" s="2"/>
-      <c r="B11" t="s" s="3">
+      <c r="A11" s="20"/>
+      <c r="B11" t="s" s="21">
         <v>11</v>
       </c>
-      <c r="C11" s="15"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
